--- a/writable/template/template_export_retur_sales_admin_detail.xlsx
+++ b/writable/template/template_export_retur_sales_admin_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Dbig/writable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3188E1-831A-B04B-8763-EBECE44BFD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A172B-CC95-8346-8E88-4AC5338AD45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{121B3595-B946-4EB3-A444-621BA2FB6EAD}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Harga</t>
   </si>
   <si>
-    <t>PPN</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -60,7 +57,10 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>DPP</t>
+    <t>PPN Per Item</t>
+  </si>
+  <si>
+    <t>DPP Per Item</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3BAD26-DF60-4598-8F68-331591CF5B28}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -528,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>5</v>
@@ -540,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
